--- a/medicine/Enfance/Antoine_Dole/Antoine_Dole.xlsx
+++ b/medicine/Enfance/Antoine_Dole/Antoine_Dole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Dole, né le 28 octobre 1981, est un écrivain, éditeur et scénariste français.
-Il publie également sous le pseudonyme de Mr. Tan[1], entre autres pour sa série Mortelle Adèle.
+Il publie également sous le pseudonyme de Mr. Tan, entre autres pour sa série Mortelle Adèle.
 En 2023, Antoine Dole a écrit plus de cent ouvrages depuis ses débuts comme auteur : romans, bandes dessinées, nouvelles, recueils de poésie, mangas, albums, ainsi que les séries Mortelle Adèle et Ajax. 
 </t>
         </is>
@@ -513,94 +525,278 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antoine Dole suscite des polémiques avec la parution de son premier roman[2], Je reviens de mourir en 2008 (Éditions Sarbacane).
-Il publie ensuite Laisse brûler en mars 2010 (Éditions Sarbacane), ainsi que le recueil Fly Girls (Éditions Au Diable Vauvert) la même année, qu'il cosigne avec la rappeuse Sté Strausz[3]. De cette rencontre naît également K-Cendres, son troisième roman.
-En janvier 2013, Antoine Dole publie À copier cent fois (Éditions Sarbacane), un court récit sur les violences scolaires[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Dole suscite des polémiques avec la parution de son premier roman, Je reviens de mourir en 2008 (Éditions Sarbacane).
+Il publie ensuite Laisse brûler en mars 2010 (Éditions Sarbacane), ainsi que le recueil Fly Girls (Éditions Au Diable Vauvert) la même année, qu'il cosigne avec la rappeuse Sté Strausz. De cette rencontre naît également K-Cendres, son troisième roman.
+En janvier 2013, Antoine Dole publie À copier cent fois (Éditions Sarbacane), un court récit sur les violences scolaires.
 En 2014, Antoine Dole entre au catalogue des éditions Actes Sud avec le roman Ce qui ne nous tue pas (collection Junior).
 Il continue en 2015 avec le roman Tout foutre en l'air (Coll. D'une Seule Voix, Actes Sud Junior), avant d'écrire la même année, un récit jeunesse : Le baiser du mammouth (Actes Sud Junior). Suivent deux ouvrages, Mon cœur caméléon, et l'album Le monstre du placard existe et je vais vous le prouver.
-En 2017 sort son neuvième roman, Naissance des cœurs de pierre, chez Actes Sud Junior, qui reçoit la même année la mention spéciale du jury pour la première édition du Prix Vendredi[5], surnommé « Le Goncourt de la littérature jeunesse », qui récompense un ouvrage jeunesse pour public adolescent[5]. L'année suivante paraît son roman Ueno Park, sélectionné parmi les Pépites du Salon du Livre et de la Presse Jeunesse de Montreuil 2018[réf. nécessaire] et pour les Pépites Internationales de l'Institut Français 2019.
+En 2017 sort son neuvième roman, Naissance des cœurs de pierre, chez Actes Sud Junior, qui reçoit la même année la mention spéciale du jury pour la première édition du Prix Vendredi, surnommé « Le Goncourt de la littérature jeunesse », qui récompense un ouvrage jeunesse pour public adolescent. L'année suivante paraît son roman Ueno Park, sélectionné parmi les Pépites du Salon du Livre et de la Presse Jeunesse de Montreuil 2018[réf. nécessaire] et pour les Pépites Internationales de l'Institut Français 2019.
 Antoine Dole crée sa propre maison d'édition en 2022 avec Diane Le Feyer, l'illustratrice de Mortelle Adèle depuis le tome 8. La nouvelle structure s'appelle Mr Tan and co.
 Octobre 2023 verra la sortie du tome 19 de Mortelle Adèle.
-Mortelle Adèle
-Cette héroïne est née pendant l'adolescence de l'auteur. Il subit du harcèlement scolaire au collège. Le personnage de Mortelle Adèle nait sous son crayon. Elle est un alter égo pour l'auteur, celle qui pourrait le défendre contre les brimades et les coups. Adèle reste dans les cahiers de collégiens d'Antoine Dole pendant des années. En 2012, il a l'idée d'en faire un personnage de bande dessinée.
-Bande dessinée
-En 2012, sous le pseudonyme Mr Tan, Antoine Dole crée le personnage de bande dessinée Mortelle Adèle aux éditions Tourbillon. En 2022, les ventes de la série dépassent les 10 millions d'exemplaires écoulés[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mortelle Adèle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette héroïne est née pendant l'adolescence de l'auteur. Il subit du harcèlement scolaire au collège. Le personnage de Mortelle Adèle nait sous son crayon. Elle est un alter égo pour l'auteur, celle qui pourrait le défendre contre les brimades et les coups. Adèle reste dans les cahiers de collégiens d'Antoine Dole pendant des années. En 2012, il a l'idée d'en faire un personnage de bande dessinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, sous le pseudonyme Mr Tan, Antoine Dole crée le personnage de bande dessinée Mortelle Adèle aux éditions Tourbillon. En 2022, les ventes de la série dépassent les 10 millions d'exemplaires écoulés.
 Sous le même pseudonyme, l'auteur a également créé différents personnages pour des magazines du groupe Milan Presse, dont Zoé Super, Karen Diablo, Ocarina Marina de 2011 à 2018.
 En 2015, il poursuit en créant la série Manoir Croquignole pour Milan Éditions et la série Shaker Monster pour les éditions Gallimard BD.
 En 2018, il crée la série 109 rue des Soupirs chez Casterman, et la série Simon Portepoisse chez Actes Sud Junior.
 En 2018, l'auteur publie son premier manga, la série 4LIFE, dont il est scénariste, aux éditions Glénat Manga, avec Vinhnyu au dessin. Il poursuit en 2020 avec la publication du manga Jizo, en collaboration avec la mangaka japonaise Mato.
-Illustrations
-En 2021, l'auteur publie Gadou, un personnage né de ses différents voyages en Asie. Deux ouvrages "Gadou fait tout" et "Gadou découvre le Japon" décrivent les débuts de ce nouveau héros, ainsi qu'une collaboration avec la marque Poppik.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, l'auteur publie Gadou, un personnage né de ses différents voyages en Asie. Deux ouvrages "Gadou fait tout" et "Gadou découvre le Japon" décrivent les débuts de ce nouveau héros, ainsi qu'une collaboration avec la marque Poppik.
 En 2021, il publie également l'album "Un jour je te porterai chance" aux éditions Actes Sud Junior, dans lequel un petit Maneki-neko adresse une déclaration d'amitié au jeune garçon qui l'a reçu en cadeau.
-Photographie
-Depuis 2014, l'auteur partage ses clichés de figurines sur les réseaux sociaux sous le label Nendo Stories. Deux livres sont issus de ces travaux : Nendo Stories en juillet 2017 (éditions Omaké Books), et Nendo Stories : A Life in Toy Photography en juillet 2019 (Editions Glénat).
-Radio
-Le 4 avril 2019, Antoine Dole fait ses débuts de chroniqueur radio dans l'émission POPOPOP sur France Inter, aux côtés des animateurs Antoine de Caunes et Charline Roux.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Antoine_Dole</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Photographie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2014, l'auteur partage ses clichés de figurines sur les réseaux sociaux sous le label Nendo Stories. Deux livres sont issus de ces travaux : Nendo Stories en juillet 2017 (éditions Omaké Books), et Nendo Stories : A Life in Toy Photography en juillet 2019 (Editions Glénat).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 4 avril 2019, Antoine Dole fait ses débuts de chroniqueur radio dans l'émission POPOPOP sur France Inter, aux côtés des animateurs Antoine de Caunes et Charline Roux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2011 : Deadline, court métrage
 2023 : Mortelle Adèle : Geoffroy</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Antoine_Dole</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auteur
-Publiés sous le nom de Antoine Dole ou de Mr Tan[1].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Publiés sous le nom de Antoine Dole ou de Mr Tan.
 Série Mortelle Adèle :
 Antoine Dole, Mortelle Adèle : Tout ça finira mal, t. 1 (bande dessinée, édition), Tourbillon.
 Antoine Dole, Mortelle Adèle : L'enfer c'est les autres, t. 2 (bande dessinée), Tourbillon.
@@ -715,52 +911,122 @@
 Antoine Dole, Gadou à Londres (album), Bayard Jeunesse, octobre 2021.
 Antoine Dole, La compagnie des drôles de bêtes : Une chauve-souris à la maison (album), Bayard Jeunesse, novembre 2021.
 Antoine Dole, Luminys Quest - The Lapins Crétins, t. 1 (manga), Editions Glénat Manga, mars 2022.
-Antoine Dole, NINGYO (manga), Editions Glénat Manga, mai 2022.
-Responsable éditorial
-En attendant l’or, Éditions du Cygne, février 2007, chap. 1.
-En attendant l’or, Éditions du Cygne, septembre 2007, chap. 2.
-Collectif
-Cofondateur du Prix Cendres[7], créé en hommage à l'autrice Axl Cendres, décédée en 2019.
+Antoine Dole, NINGYO (manga), Editions Glénat Manga, mai 2022.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Responsable éditorial</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>En attendant l’or, Éditions du Cygne, février 2007, chap. 1.
+En attendant l’or, Éditions du Cygne, septembre 2007, chap. 2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Collectif</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cofondateur du Prix Cendres, créé en hommage à l'autrice Axl Cendres, décédée en 2019.
 En 2017, il participe à l'ouvrage 16 nuances de première fois, recueil de nouvelles codirigé par Séverine Vidal et Manu Causse pour les éditions Eyrolles.
-Il collabore avec plusieurs illustrateurs, sous le nom d'Antoine Dole ou sous le pseudonyme de Mr Tan[1], dont Diane le Feyer, Yomgui Dumont, Bruno Salamone, Vinhnyu, Camille Roy, Aurore Damant, Miss Paty, Juliette Inigo, Mathilde Domecq, Stan Silas, Paul Drouin, Paco Sardo, ou encore Baptiste Amsallem.
+Il collabore avec plusieurs illustrateurs, sous le nom d'Antoine Dole ou sous le pseudonyme de Mr Tan, dont Diane le Feyer, Yomgui Dumont, Bruno Salamone, Vinhnyu, Camille Roy, Aurore Damant, Miss Paty, Juliette Inigo, Mathilde Domecq, Stan Silas, Paul Drouin, Paco Sardo, ou encore Baptiste Amsallem.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Antoine_Dole</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Dole</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Le roman A copier cent fois (Éditions Sarbacane) est lauréat du Prix Les Adolises 2014.
-La série Mortelle Adèle (Éditions Tourbillon) est lauréate du prix Michel Tournier Jeunesse 2015[8] et du prix BD des collèges azuréens 2015.
-Le roman Konnichiwa Martin / Salut Hikaru (Éditions du Rouergue) est lauréat du Prix littéraire Jeunesse CoPLER 2016[9] et du Prix du Jury du Jeune Lecteur 2016.
-Le roman Le baiser du mammouth (Éditions Actes Sud Junior) est lauréat du Prix littéraire jeunesse Lire Elire 2016, du prix Dis Moi Ton Livre 2016[10] et du prix Ravinala 2016[11] Le livre voyageur décerné par les collèges français de Madagascar.
-Le roman Mon Cœur Caméléon (Éditions Actes Sud Junior) est lauréat du Prix Atout Lire 2018 (catégorie CM1)[12]
-L'album Le monstre du placard existe et je vais vous le prouver (Éditions Actes Sud Junior, illustré par Bruno Salamone) est lauréat du Prix Folies d'Encre jeunesse 2016[13] et du prix Libr'à Nous 2017 catégorie Album Jeunesse[14].
-Le roman Naissance des cœurs de pierre (Éditions Actes Sud Junior) a reçu la mention spéciale du Jury de la première édition 2017 du Prix Vendredi[5], qui récompense un ouvrage jeunesse pour public adolescent[5].
-Le roman Ueno Park a fait partie de la sélection des Pépites 2018 du Salon du Livre et de la Presse Jeunesse de Montreuil[réf. nécessaire] et figure dans la sélection des Pépites internationales 2019 de l'Institut Français en partenariat avec le SLPJ de Montreuil[15].
+La série Mortelle Adèle (Éditions Tourbillon) est lauréate du prix Michel Tournier Jeunesse 2015 et du prix BD des collèges azuréens 2015.
+Le roman Konnichiwa Martin / Salut Hikaru (Éditions du Rouergue) est lauréat du Prix littéraire Jeunesse CoPLER 2016 et du Prix du Jury du Jeune Lecteur 2016.
+Le roman Le baiser du mammouth (Éditions Actes Sud Junior) est lauréat du Prix littéraire jeunesse Lire Elire 2016, du prix Dis Moi Ton Livre 2016 et du prix Ravinala 2016 Le livre voyageur décerné par les collèges français de Madagascar.
+Le roman Mon Cœur Caméléon (Éditions Actes Sud Junior) est lauréat du Prix Atout Lire 2018 (catégorie CM1)
+L'album Le monstre du placard existe et je vais vous le prouver (Éditions Actes Sud Junior, illustré par Bruno Salamone) est lauréat du Prix Folies d'Encre jeunesse 2016 et du prix Libr'à Nous 2017 catégorie Album Jeunesse.
+Le roman Naissance des cœurs de pierre (Éditions Actes Sud Junior) a reçu la mention spéciale du Jury de la première édition 2017 du Prix Vendredi, qui récompense un ouvrage jeunesse pour public adolescent.
+Le roman Ueno Park a fait partie de la sélection des Pépites 2018 du Salon du Livre et de la Presse Jeunesse de Montreuil[réf. nécessaire] et figure dans la sélection des Pépites internationales 2019 de l'Institut Français en partenariat avec le SLPJ de Montreuil.
 Le roman L'instant de la fracture est lauréat du Prix Danielle Grondein 2019.</t>
         </is>
       </c>
